--- a/hackathon/src/test/resources/outputexcel/movielanguages1.xlsx
+++ b/hackathon/src/test/resources/outputexcel/movielanguages1.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Movie languages1" r:id="rId3" sheetId="1"/>
+    <sheet name="Movie languages2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -53,16 +53,16 @@
     <t>Bhojpuri</t>
   </si>
   <si>
+    <t>Maithili</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
     <t>Ladakhi</t>
   </si>
   <si>
     <t>Italian</t>
-  </si>
-  <si>
-    <t>Maithili</t>
-  </si>
-  <si>
-    <t>Korean</t>
   </si>
 </sst>
 </file>
